--- a/theo/outputs/EQT/correlations.xlsx
+++ b/theo/outputs/EQT/correlations.xlsx
@@ -532,52 +532,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.81364948506655</v>
+        <v>-0.3132074423154856</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.1429100054043204</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.1417727050125801</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.6331276961656682</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.8378179650071893</v>
+        <v>-0.2771862213393121</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.05484551428079724</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.05295964502001203</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.324341770807667</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3107665978255115</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.05484551428079724</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.05295964502001203</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.324341770807667</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3107665978255115</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.05942391687459775</v>
+        <v>-0.05093463174743144</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0739577429103636</v>
+        <v>-0.2472571075021671</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.08293271414155323</v>
+        <v>-0.06639850538807941</v>
       </c>
     </row>
     <row r="3">
@@ -587,55 +587,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.81364948506655</v>
+        <v>-0.3132074423154856</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.145135095128225</v>
+        <v>-0.1354316547012778</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2254182062328378</v>
+        <v>-0.007751091295039246</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8965886917760298</v>
+        <v>-0.007083912991711598</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.2521726402184272</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.03068776236951149</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.03278670766870352</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.3907025708259899</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.4033132884231632</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.1154810090107652</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.1132779717517717</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.3473930281000522</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.3598477593354013</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1243466933151483</v>
+        <v>-0.1391323279713215</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.144999567334247</v>
+        <v>-0.2075747404695844</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08371090259111397</v>
+        <v>-0.08167010237202214</v>
       </c>
     </row>
     <row r="4">
@@ -645,55 +645,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.1429100054043204</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.145135095128225</v>
+        <v>-0.1354316547012778</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.8590594633719892</v>
       </c>
       <c r="F4" t="n">
-        <v>0.120047865316206</v>
+        <v>0.06031656164116839</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04721912462364202</v>
+        <v>-0.0604246798600098</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0858811889768662</v>
+        <v>0.0793952074636563</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08542038569447827</v>
+        <v>0.08549894171241046</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1187843366886131</v>
+        <v>0.008007443084683874</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1157989976916509</v>
+        <v>0.00766950723599451</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01327111248337664</v>
+        <v>0.2088366807578615</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01184706874126569</v>
+        <v>0.2206278796825159</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1234156758769617</v>
+        <v>0.07738200363266895</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1202710080448487</v>
+        <v>0.07553895163233744</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.4387851434332984</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.280223623358801</v>
+        <v>0.1001353403438018</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.9070916843140068</v>
       </c>
     </row>
     <row r="5">
@@ -703,55 +703,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.1417727050125801</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2254182062328378</v>
+        <v>-0.007751091295039246</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.8590594633719892</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.2122019663404859</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.1404690284403221</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.1148261408598621</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.1207688641860847</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.1287347865038474</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.1252267973275869</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.2194433191705383</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.2240607305649507</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.1559445006715612</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.1502090228554419</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.08302497672236758</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.1923588903258916</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.6781623949731186</v>
       </c>
     </row>
     <row r="6">
@@ -761,55 +761,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.6331276961656682</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8965886917760298</v>
+        <v>-0.007083912991711598</v>
       </c>
       <c r="D6" t="n">
-        <v>0.120047865316206</v>
+        <v>0.06031656164116839</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.2122019663404859</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.661959127253956</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.1287868464520175</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.1273987667875649</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.6252279257186784</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.6145168643620091</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.06633684551143994</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.06592347261551715</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.6167801494427569</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.6062095659556578</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.2550905386097918</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.4558447787451518</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.1787626716330375</v>
       </c>
     </row>
     <row r="7">
@@ -819,55 +819,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8378179650071893</v>
+        <v>-0.2771862213393121</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.2521726402184272</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04721912462364202</v>
+        <v>-0.0604246798600098</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.1404690284403221</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.661959127253956</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.1637862332665353</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.1619982319642805</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.7922434493766884</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.7829537166165919</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.09807125511933497</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.09711962884369345</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.7833776589479682</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.7741961147605814</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1758310361924029</v>
+        <v>0.1289537116237651</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.2911272707577204</v>
       </c>
       <c r="R7" t="n">
-        <v>0.131579400780076</v>
+        <v>0.1144534354591232</v>
       </c>
     </row>
     <row r="8">
@@ -877,55 +877,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.05484551428079724</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.03068776236951149</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0858811889768662</v>
+        <v>0.0793952074636563</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.1148261408598621</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.1287868464520175</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.1637862332665353</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9991974661330402</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.176833979171501</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1766513610268266</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.0695581984958069</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.07009379688975592</v>
       </c>
       <c r="N8" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1690975487506178</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1689736420292207</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.03026040668044333</v>
+        <v>-0.03809348013806803</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.06415728632401425</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.07629100620883848</v>
+        <v>-0.02298864801552778</v>
       </c>
     </row>
     <row r="9">
@@ -935,55 +935,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.05295964502001203</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.03278670766870352</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08542038569447827</v>
+        <v>0.08549894171241046</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.1207688641860847</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.1273987667875649</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.1619982319642805</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9991974661330402</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1776615547664672</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1776383983718193</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.06724769054676606</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.0679199809069643</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1702658618140063</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1702887821960727</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.03004065622586707</v>
+        <v>-0.03690212215321306</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.06467542353791415</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.07503856081897804</v>
+        <v>-0.01572301610967098</v>
       </c>
     </row>
     <row r="10">
@@ -993,55 +993,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.324341770807667</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.3907025708259899</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1187843366886131</v>
+        <v>0.008007443084683874</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.1287347865038474</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.6252279257186784</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.7922434493766884</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.176833979171501</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1776615547664672</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9991151724138826</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.01600031831999297</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.0154940580135</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9731634412593182</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9721576577736434</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.1061422340971321</v>
+        <v>-0.2104030948246773</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.4078309425448117</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.1603747974426556</v>
       </c>
     </row>
     <row r="11">
@@ -1051,55 +1051,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3107665978255115</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.4033132884231632</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1157989976916509</v>
+        <v>0.00766950723599451</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.1252267973275869</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.6145168643620091</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.7829537166165919</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1766513610268266</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1776383983718193</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9991151724138826</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.01618989682578403</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.01569626445828153</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9726270683264339</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9733381734477059</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1013462259039337</v>
+        <v>-0.204902772469363</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.3936519434133026</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.1571757241613837</v>
       </c>
     </row>
     <row r="12">
@@ -1109,55 +1109,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.05484551428079724</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.1154810090107652</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01327111248337664</v>
+        <v>0.2088366807578615</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.2194433191705383</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.06633684551143994</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.09807125511933497</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.0695581984958069</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.06724769054676606</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.01600031831999297</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.01618989682578403</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9991974661330402</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.176833979171501</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1766513610268266</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.04774522972927903</v>
+        <v>0.1299474993513815</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.02380560039217438</v>
+        <v>-0.002591742895923056</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01423941505429584</v>
+        <v>0.2445172623558549</v>
       </c>
     </row>
     <row r="13">
@@ -1167,55 +1167,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.05295964502001203</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.1132779717517717</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01184706874126569</v>
+        <v>0.2206278796825159</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.2240607305649507</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.06592347261551715</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.09711962884369345</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.07009379688975592</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.0679199809069643</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.0154940580135</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.01569626445828153</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9991974661330402</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1776615547664672</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1776383983718193</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.04832629936156562</v>
+        <v>0.1327992909046561</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.02574432881879462</v>
+        <v>-0.001347388334831892</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01245764775529891</v>
+        <v>0.2498821061049084</v>
       </c>
     </row>
     <row r="14">
@@ -1225,55 +1225,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.324341770807667</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.3473930281000522</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1234156758769617</v>
+        <v>0.07738200363266895</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.1559445006715612</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.6167801494427569</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.7833776589479682</v>
       </c>
       <c r="H14" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1690975487506178</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1702658618140063</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9731634412593182</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9726270683264339</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.176833979171501</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1776615547664672</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9991151724138826</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.1329752014982045</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.4007980594443355</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.06248535020610576</v>
       </c>
     </row>
     <row r="15">
@@ -1283,55 +1283,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3107665978255115</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.3598477593354013</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1202710080448487</v>
+        <v>0.07553895163233744</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.1502090228554419</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.6062095659556578</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.7741961147605814</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1689736420292207</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1702887821960727</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9721576577736434</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9733381734477059</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1766513610268266</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1776383983718193</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9991151724138826</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.1262376395539759</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.3862619015237507</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.06184852880967824</v>
       </c>
     </row>
     <row r="16">
@@ -1341,55 +1341,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.05942391687459775</v>
+        <v>-0.05093463174743144</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1243466933151483</v>
+        <v>-0.1391323279713215</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.4387851434332984</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.08302497672236758</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.2550905386097918</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1758310361924029</v>
+        <v>0.1289537116237651</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.03026040668044333</v>
+        <v>-0.03809348013806803</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.03004065622586707</v>
+        <v>-0.03690212215321306</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1061422340971321</v>
+        <v>-0.2104030948246773</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1013462259039337</v>
+        <v>-0.204902772469363</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.04774522972927903</v>
+        <v>0.1299474993513815</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.04832629936156562</v>
+        <v>0.1327992909046561</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.1329752014982045</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.1262376395539759</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.5326326804441959</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.5754689110825228</v>
       </c>
     </row>
     <row r="17">
@@ -1399,55 +1399,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0739577429103636</v>
+        <v>-0.2472571075021671</v>
       </c>
       <c r="C17" t="n">
-        <v>0.144999567334247</v>
+        <v>-0.2075747404695844</v>
       </c>
       <c r="D17" t="n">
-        <v>0.280223623358801</v>
+        <v>0.1001353403438018</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.1923588903258916</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.4558447787451518</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.2911272707577204</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.06415728632401425</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.06467542353791415</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.4078309425448117</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.3936519434133026</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.02380560039217438</v>
+        <v>-0.002591742895923056</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.02574432881879462</v>
+        <v>-0.001347388334831892</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.4007980594443355</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.3862619015237507</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.5326326804441959</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.2113093383722307</v>
       </c>
     </row>
     <row r="18">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.08293271414155323</v>
+        <v>-0.06639850538807941</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08371090259111397</v>
+        <v>-0.08167010237202214</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.9070916843140068</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.6781623949731186</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.1787626716330375</v>
       </c>
       <c r="G18" t="n">
-        <v>0.131579400780076</v>
+        <v>0.1144534354591232</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.07629100620883848</v>
+        <v>-0.02298864801552778</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.07503856081897804</v>
+        <v>-0.01572301610967098</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.1603747974426556</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.1571757241613837</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01423941505429584</v>
+        <v>0.2445172623558549</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01245764775529891</v>
+        <v>0.2498821061049084</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.06248535020610576</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.06184852880967824</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.5754689110825228</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.2113093383722307</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -1624,52 +1624,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.8767080520347588</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5059116106770681</v>
+        <v>0.05359812578780287</v>
       </c>
       <c r="E2" t="n">
-        <v>0.510910672846745</v>
+        <v>0.04445877871042389</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9125292365146231</v>
+        <v>0.2073887339716594</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.8631462048112359</v>
       </c>
       <c r="H2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02093944593018204</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.01847594787467363</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.1248321626760501</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1169101961296791</v>
       </c>
       <c r="L2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02093944593018204</v>
       </c>
       <c r="M2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.01847594787467363</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.1248321626760501</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1169101961296791</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.01675235880231756</v>
+        <v>0.004642609073027532</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.04911293802613444</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1105540313008141</v>
+        <v>0.003335582678077767</v>
       </c>
     </row>
     <row r="3">
@@ -1679,55 +1679,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.8767080520347588</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.07597719626749734</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.05878817979874403</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.3091025130812768</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.9231390990691101</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.01193795019724941</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.01462029060436752</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.05499179796808261</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.06378066623177264</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.04931764184227479</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.0464717490131334</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.04405461245298961</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.05291679855694324</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.002093105334223094</v>
+        <v>-0.01845435118894496</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.01404586819640572</v>
+        <v>0.002504564450178502</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.02135046076436313</v>
+        <v>-0.01250522338686089</v>
       </c>
     </row>
     <row r="4">
@@ -1737,55 +1737,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5059116106770681</v>
+        <v>0.05359812578780287</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.07597719626749734</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.7552671177319776</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.06445560857598248</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.003088083308112179</v>
+        <v>-0.05724980123582175</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01481616675515068</v>
+        <v>-0.07280098956122776</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01347445623176441</v>
+        <v>-0.06189750072154088</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.02321533553742713</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.02127811721939962</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.008499475188913396</v>
+        <v>-0.006351325667201424</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.005472783547952953</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1171884511774632</v>
+        <v>0.01370436690893184</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.113877634034877</v>
+        <v>0.01494091943951972</v>
       </c>
       <c r="P4" t="n">
-        <v>0.381730299763587</v>
+        <v>0.3810228197202087</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.1722385919390117</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.9097847053389165</v>
       </c>
     </row>
     <row r="5">
@@ -1795,55 +1795,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.510910672846745</v>
+        <v>0.04445877871042389</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.05878817979874403</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.7552671177319776</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.2025442674988903</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.07739292700636738</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.0003103974765583608</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.006775044040331535</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.05681993799355149</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.05657684008727085</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006301670928776885</v>
+        <v>-0.03907554363807948</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005858916382482694</v>
+        <v>-0.02696812137733644</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.06755131283226246</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.04105360920728408</v>
+        <v>0.06597976106679064</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.3182021236617842</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.1664374650685359</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.6117061813206729</v>
       </c>
     </row>
     <row r="6">
@@ -1853,55 +1853,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9125292365146231</v>
+        <v>0.2073887339716594</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.3091025130812768</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.06445560857598248</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.2025442674988903</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.3821037640909357</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.001222097019639046</v>
+        <v>0.03647611036046412</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.001500437997579193</v>
+        <v>0.03885461973132123</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.071658661735564</v>
+        <v>0.2342925211195445</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.06835596837026831</v>
+        <v>0.2405298824160797</v>
       </c>
       <c r="L6" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>0.0354076862775389</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>0.03556157573068278</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0714630892871788</v>
+        <v>0.2341059109910499</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.06818898008088864</v>
+        <v>0.2400002714511434</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.1924882270217344</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.3049726916355847</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.127797702216592</v>
       </c>
     </row>
     <row r="7">
@@ -1911,55 +1911,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.8631462048112359</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.9231390990691101</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.003088083308112179</v>
+        <v>-0.05724980123582175</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.07739292700636738</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.3821037640909357</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.05104915128225517</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.04933055856721413</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.3331192776539479</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.3236919331643608</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.05849906194750252</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.05504678180664931</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.3343061061209192</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.324608900273932</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.02636598617692954</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.08463353396555134</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01950943368362832</v>
+        <v>0.02296797369665618</v>
       </c>
     </row>
     <row r="8">
@@ -1969,55 +1969,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02093944593018204</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.01193795019724941</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01481616675515068</v>
+        <v>-0.07280098956122776</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.0003103974765583608</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.001222097019639046</v>
+        <v>0.03647611036046412</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.05104915128225517</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9972792242399108</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.169102137761549</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1678102072162071</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.05712301967457724</v>
+        <v>0.03452304250272386</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.05575559682641544</v>
+        <v>0.03002844219612223</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1763932272964882</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1743142797106081</v>
       </c>
       <c r="P8" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.1125505727032666</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.07666761787519308</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02036847947948598</v>
+        <v>-0.07849514571052235</v>
       </c>
     </row>
     <row r="9">
@@ -2027,55 +2027,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.01847594787467363</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.01462029060436752</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01347445623176441</v>
+        <v>-0.06189750072154088</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.006775044040331535</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001500437997579193</v>
+        <v>0.03885461973132123</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.04933055856721413</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9972792242399108</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1704499235446808</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1700265329422514</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.05612797095174527</v>
+        <v>0.03034680050640532</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.05479620814956767</v>
+        <v>0.02590680570690108</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1771141077956115</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1759409018080549</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.1046831389295347</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.074950898157588</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02337317420084243</v>
+        <v>-0.0708184824527187</v>
       </c>
     </row>
     <row r="10">
@@ -2085,55 +2085,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.1248321626760501</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.05499179796808261</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.02321533553742713</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.05681993799355149</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.071658661735564</v>
+        <v>0.2342925211195445</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.3331192776539479</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.169102137761549</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1704499235446808</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.999573296525938</v>
+        <v>0.997070769981935</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004286069850222709</v>
+        <v>0.01217422913501476</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004184491722236913</v>
+        <v>0.01190572440590118</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9728199006664615</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9698648307929741</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.1137328138886411</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.2136571872143109</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.09031797570965545</v>
       </c>
     </row>
     <row r="11">
@@ -2143,55 +2143,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1169101961296791</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.06378066623177264</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.02127811721939962</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.05657684008727085</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06835596837026831</v>
+        <v>0.2405298824160797</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.3236919331643608</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1678102072162071</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1700265329422514</v>
       </c>
       <c r="J11" t="n">
-        <v>0.999573296525938</v>
+        <v>0.997070769981935</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003410368111363741</v>
+        <v>0.01170116178391028</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003251022319510548</v>
+        <v>0.01156553104360834</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9701531513566595</v>
       </c>
       <c r="O11" t="n">
-        <v>0.973138845170242</v>
+        <v>0.972899852995216</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.110587813136099</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.2089524924617881</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.09064117486287886</v>
       </c>
     </row>
     <row r="12">
@@ -2201,55 +2201,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02093944593018204</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.04931764184227479</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.008499475188913396</v>
+        <v>-0.006351325667201424</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006301670928776885</v>
+        <v>-0.03907554363807948</v>
       </c>
       <c r="F12" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>0.0354076862775389</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.05849906194750252</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.05712301967457724</v>
+        <v>0.03452304250272386</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05612797095174527</v>
+        <v>0.03034680050640532</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004286069850222709</v>
+        <v>0.01217422913501476</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003410368111363741</v>
+        <v>0.01170116178391028</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9972792242399108</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.169102137761549</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1678102072162071</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.02242102045819601</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.001574791682833234</v>
+        <v>0.005512865959387631</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.007005557741621795</v>
+        <v>-0.01159688685556754</v>
       </c>
     </row>
     <row r="13">
@@ -2259,55 +2259,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.01847594787467363</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.0464717490131334</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.005472783547952953</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005858916382482694</v>
+        <v>-0.02696812137733644</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>0.03556157573068278</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.05504678180664931</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.05575559682641544</v>
+        <v>0.03002844219612223</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.05479620814956767</v>
+        <v>0.02590680570690108</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004184491722236913</v>
+        <v>0.01190572440590118</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003251022319510548</v>
+        <v>0.01156553104360834</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9972792242399108</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1704499235446808</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1700265329422514</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.02558882732925827</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.001475047549576377</v>
+        <v>0.006364754351115622</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.006349395072829069</v>
+        <v>-0.0005301318861977157</v>
       </c>
     </row>
     <row r="14">
@@ -2317,55 +2317,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.1248321626760501</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.04405461245298961</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1171884511774632</v>
+        <v>0.01370436690893184</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.06755131283226246</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0714630892871788</v>
+        <v>0.2341059109910499</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.3343061061209192</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1763932272964882</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1771141077956115</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9728199006664615</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9701531513566595</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.169102137761549</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1704499235446808</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.999573296525938</v>
+        <v>0.997070769981935</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.08180883185401609</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.2086067949724633</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.07167927480566143</v>
+        <v>-0.04093360389012348</v>
       </c>
     </row>
     <row r="15">
@@ -2375,55 +2375,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1169101961296791</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.05291679855694324</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.113877634034877</v>
+        <v>0.01494091943951972</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.04105360920728408</v>
+        <v>0.06597976106679064</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.06818898008088864</v>
+        <v>0.2400002714511434</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.324608900273932</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1743142797106081</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1759409018080549</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9698648307929741</v>
       </c>
       <c r="K15" t="n">
-        <v>0.973138845170242</v>
+        <v>0.972899852995216</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1678102072162071</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1700265329422514</v>
       </c>
       <c r="N15" t="n">
-        <v>0.999573296525938</v>
+        <v>0.997070769981935</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.07706352994857053</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.203391724993213</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.07089367457370295</v>
+        <v>-0.04158425004147669</v>
       </c>
     </row>
     <row r="16">
@@ -2433,55 +2433,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01675235880231756</v>
+        <v>0.004642609073027532</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.002093105334223094</v>
+        <v>-0.01845435118894496</v>
       </c>
       <c r="D16" t="n">
-        <v>0.381730299763587</v>
+        <v>0.3810228197202087</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.3182021236617842</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.1924882270217344</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.02636598617692954</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.1125505727032666</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.1046831389295347</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.1137328138886411</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.110587813136099</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.02242102045819601</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.02558882732925827</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.08180883185401609</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.07706352994857053</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.4839185407948345</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.45304618169495</v>
       </c>
     </row>
     <row r="17">
@@ -2491,55 +2491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.04911293802613444</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01404586819640572</v>
+        <v>0.002504564450178502</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.1722385919390117</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.1664374650685359</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.3049726916355847</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.08463353396555134</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.07666761787519308</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.074950898157588</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.2136571872143109</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.2089524924617881</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.001574791682833234</v>
+        <v>0.005512865959387631</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.001475047549576377</v>
+        <v>0.006364754351115622</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.2086067949724633</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.203391724993213</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.4839185407948345</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.2284435780728191</v>
       </c>
     </row>
     <row r="18">
@@ -2549,52 +2549,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1105540313008141</v>
+        <v>0.003335582678077767</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.02135046076436313</v>
+        <v>-0.01250522338686089</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.9097847053389165</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.6117061813206729</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.127797702216592</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01950943368362832</v>
+        <v>0.02296797369665618</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02036847947948598</v>
+        <v>-0.07849514571052235</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02337317420084243</v>
+        <v>-0.0708184824527187</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.09031797570965545</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.09064117486287886</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.007005557741621795</v>
+        <v>-0.01159688685556754</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.006349395072829069</v>
+        <v>-0.0005301318861977157</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.07167927480566143</v>
+        <v>-0.04093360389012348</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.07089367457370295</v>
+        <v>-0.04158425004147669</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.45304618169495</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.2284435780728191</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -2716,52 +2716,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5421497698657863</v>
+        <v>-0.8377616508681208</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.04806087985184964</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.05222633146355972</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.224064488420408</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5241907629105079</v>
+        <v>-0.8340019008563397</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.00164787228295103</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.00373487408727156</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.02125114998247092</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.02331200662646465</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.00164787228295103</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.00373487408727156</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.02125114998247092</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.02331200662646465</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03278743538109485</v>
+        <v>-0.001862508248615437</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1205942488249974</v>
+        <v>-0.0009875725346348767</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.006116158884769156</v>
       </c>
     </row>
     <row r="3">
@@ -2771,55 +2771,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5421497698657863</v>
+        <v>-0.8377616508681208</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.02069304106204867</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.005568557908921721</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.02932123253279307</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9519467659601275</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.02816267519913786</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.03003920570388784</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.1809784932975023</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.1805632261693817</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.02508317856598869</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.02294187469201878</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.1715481631854392</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.1712259566591264</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.03201328201338007</v>
+        <v>-0.01363316846788336</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0328258624092044</v>
+        <v>-0.0175639936886101</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.0237062193131504</v>
+        <v>-0.01765198983552286</v>
       </c>
     </row>
     <row r="4">
@@ -2829,55 +2829,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.04806087985184964</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.02069304106204867</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.6273566048292274</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.08908883057824922</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.0202791288579066</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.008412173814428259</v>
+        <v>-0.03986546904088697</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.007932935706425738</v>
+        <v>-0.03358519945959097</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.04786130376546804</v>
+        <v>0.009299216976175976</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.04911434213698183</v>
+        <v>0.01052718874016722</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.002653280595499959</v>
+        <v>-0.004354543076537284</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.0007175786252102078</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.04910470280271267</v>
+        <v>0.01526029707593559</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.05034905349114259</v>
+        <v>0.01606975117329901</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.4397662343456405</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.2226477372642721</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.8906486964937467</v>
       </c>
     </row>
     <row r="5">
@@ -2887,55 +2887,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.05222633146355972</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.005568557908921721</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.6273566048292274</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.2364735265875336</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.01672725924721142</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.008883642745795039</v>
+        <v>-0.02387509764828123</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.009553238901079456</v>
+        <v>-0.01801880740987931</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.03568481524595535</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.037891857616667</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.02842101553414876</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.02922161020187592</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.0407248297644737</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.04119383976100825</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.4234986104444534</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.1591803660052224</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.5064839945950508</v>
       </c>
     </row>
     <row r="6">
@@ -2945,55 +2945,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.224064488420408</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.02932123253279307</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.08908883057824922</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.2364735265875336</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.07448604144033615</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.0251670908998725</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.02673601747968284</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.1442533037657261</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.1530551000358691</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002559122545756721</v>
+        <v>0.02508329560119185</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002326493781731304</v>
+        <v>0.02521419186996917</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.1442368433894624</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.1527907557832144</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.1690883089853802</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.2176063791292302</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.1202493117058107</v>
       </c>
     </row>
     <row r="7">
@@ -3003,55 +3003,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5241907629105079</v>
+        <v>-0.8340019008563397</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9519467659601275</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.0202791288579066</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.01672725924721142</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.07448604144033615</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.02472594672061747</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.02292135967785311</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.1289243333786909</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.1275752792528975</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.02130176461076739</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.01975504096118684</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.1283401969583973</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.127043501568011</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.006391245112363666</v>
+        <v>-0.00429909092331578</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07152722109181084</v>
+        <v>-0.0003172495894396041</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02043428162814625</v>
+        <v>-0.005869361508484846</v>
       </c>
     </row>
     <row r="8">
@@ -3061,55 +3061,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.00164787228295103</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.02816267519913786</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.008412173814428259</v>
+        <v>-0.03986546904088697</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.008883642745795039</v>
+        <v>-0.02387509764828123</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.0251670908998725</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.02472594672061747</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9950304501851841</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1766154611250517</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1748770245723653</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.04289805790585169</v>
+        <v>0.04007305034465999</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.04225797328940766</v>
+        <v>0.03914517395937938</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1815778575260106</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.179973302357451</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.02018168251941271</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0003036857201429574</v>
+        <v>-0.01249436112353065</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.05202685966743788</v>
       </c>
     </row>
     <row r="9">
@@ -3119,55 +3119,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.00373487408727156</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.03003920570388784</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.007932935706425738</v>
+        <v>-0.03358519945959097</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.009553238901079456</v>
+        <v>-0.01801880740987931</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.02673601747968284</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.02292135967785311</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9950304501851841</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1762536902095765</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1763211343870908</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0428953814320998</v>
+        <v>0.03897593667539816</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.04237614760923573</v>
+        <v>0.0379050244367485</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1812282457564928</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1813943287450585</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.01940960799668517</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001939945135960296</v>
+        <v>-0.01265355310828509</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.04750044981560209</v>
       </c>
     </row>
     <row r="10">
@@ -3177,55 +3177,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.02125114998247092</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.1809784932975023</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04786130376546804</v>
+        <v>0.009299216976175976</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.03568481524595535</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.1442533037657261</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.1289243333786909</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1766154611250517</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1762536902095765</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9943232590887806</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.009279674106381362</v>
+        <v>-0.00796274098000061</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.009707136967591255</v>
+        <v>-0.006624458552223838</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9672521134087075</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9620634165969851</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.03033757054561538</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.05585190277470354</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.03830763858514992</v>
       </c>
     </row>
     <row r="11">
@@ -3235,55 +3235,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.02331200662646465</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.1805632261693817</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.04911434213698183</v>
+        <v>0.01052718874016722</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.037891857616667</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.1530551000358691</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.1275752792528975</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1748770245723653</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1763211343870908</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9943232590887806</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.009675569737380988</v>
+        <v>-0.007161540172430598</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.01013661336192944</v>
+        <v>-0.005938012774680884</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9620579284865685</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9678542642149744</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.03145445812067354</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.06049003553861115</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.04069543952292486</v>
       </c>
     </row>
     <row r="12">
@@ -3293,55 +3293,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.00164787228295103</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.02508317856598869</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.002653280595499959</v>
+        <v>-0.004354543076537284</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.02842101553414876</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002559122545756721</v>
+        <v>0.02508329560119185</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.02130176461076739</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.04289805790585169</v>
+        <v>0.04007305034465999</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0428953814320998</v>
+        <v>0.03897593667539816</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.009279674106381362</v>
+        <v>-0.00796274098000061</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.009675569737380988</v>
+        <v>-0.007161540172430598</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9950304501851841</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1766154611250517</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1748770245723653</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01231767746807113</v>
+        <v>-0.03904898752537956</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01502653945814526</v>
+        <v>0.002968135373747276</v>
       </c>
       <c r="R12" t="n">
-        <v>0.008037545769291303</v>
+        <v>0.0009233971986934141</v>
       </c>
     </row>
     <row r="13">
@@ -3351,55 +3351,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.00373487408727156</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.02294187469201878</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.0007175786252102078</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.02922161020187592</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002326493781731304</v>
+        <v>0.02521419186996917</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.01975504096118684</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.04225797328940766</v>
+        <v>0.03914517395937938</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04237614760923573</v>
+        <v>0.0379050244367485</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.009707136967591255</v>
+        <v>-0.006624458552223838</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01013661336192944</v>
+        <v>-0.005938012774680884</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9950304501851841</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1762536902095765</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1763211343870908</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01282555572957506</v>
+        <v>-0.03391903073355597</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01509284879446856</v>
+        <v>0.003567290580094434</v>
       </c>
       <c r="R13" t="n">
-        <v>0.007909332230194155</v>
+        <v>0.006912276524952237</v>
       </c>
     </row>
     <row r="14">
@@ -3409,55 +3409,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.02125114998247092</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.1715481631854392</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04910470280271267</v>
+        <v>0.01526029707593559</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.0407248297644737</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.1442368433894624</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.1283401969583973</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1815778575260106</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1812282457564928</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9672521134087075</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9620579284865685</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1766154611250517</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1762536902095765</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9943232590887806</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.02942299081064167</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.05531792081308093</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.01863658022030886</v>
       </c>
     </row>
     <row r="15">
@@ -3467,55 +3467,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.02331200662646465</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.1712259566591264</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05034905349114259</v>
+        <v>0.01606975117329901</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.04119383976100825</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.1527907557832144</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.127043501568011</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.179973302357451</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1813943287450585</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9620634165969851</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9678542642149744</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1748770245723653</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1763211343870908</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9943232590887806</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.02901752752879882</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.05964639928461154</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.02045043204423396</v>
       </c>
     </row>
     <row r="16">
@@ -3525,55 +3525,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03278743538109485</v>
+        <v>-0.001862508248615437</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03201328201338007</v>
+        <v>-0.01363316846788336</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.4397662343456405</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.4234986104444534</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.1690883089853802</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.006391245112363666</v>
+        <v>-0.00429909092331578</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.02018168251941271</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.01940960799668517</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.03033757054561538</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.03145445812067354</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.01231767746807113</v>
+        <v>-0.03904898752537956</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.01282555572957506</v>
+        <v>-0.03391903073355597</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.02942299081064167</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.02901752752879882</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.4425882803624517</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.4519606516264496</v>
       </c>
     </row>
     <row r="17">
@@ -3583,55 +3583,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1205942488249974</v>
+        <v>-0.0009875725346348767</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0328258624092044</v>
+        <v>-0.0175639936886101</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.2226477372642721</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.1591803660052224</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.2176063791292302</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07152722109181084</v>
+        <v>-0.0003172495894396041</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0003036857201429574</v>
+        <v>-0.01249436112353065</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001939945135960296</v>
+        <v>-0.01265355310828509</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.05585190277470354</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.06049003553861115</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01502653945814526</v>
+        <v>0.002968135373747276</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01509284879446856</v>
+        <v>0.003567290580094434</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.05531792081308093</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.05964639928461154</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.4425882803624517</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.2668169589031941</v>
       </c>
     </row>
     <row r="18">
@@ -3641,52 +3641,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.006116158884769156</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0237062193131504</v>
+        <v>-0.01765198983552286</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.8906486964937467</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.5064839945950508</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.1202493117058107</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02043428162814625</v>
+        <v>-0.005869361508484846</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.05202685966743788</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.04750044981560209</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.03830763858514992</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.04069543952292486</v>
       </c>
       <c r="L18" t="n">
-        <v>0.008037545769291303</v>
+        <v>0.0009233971986934141</v>
       </c>
       <c r="M18" t="n">
-        <v>0.007909332230194155</v>
+        <v>0.006912276524952237</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.01863658022030886</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.02045043204423396</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.4519606516264496</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.2668169589031941</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
